--- a/inst/Research tracker - template - V4.xlsx
+++ b/inst/Research tracker - template - V4.xlsx
@@ -33,9 +33,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="EMILIE POISSON - Personal View" guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="3"/>
+    <customWorkbookView name="Elisabeth Vikman - Personal View" guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3232" windowHeight="1732" activeSheetId="1"/>
     <customWorkbookView name="Martin Barner - Personal View" guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3" showComments="commIndAndComment"/>
-    <customWorkbookView name="Elisabeth Vikman - Personal View" guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3232" windowHeight="1732" activeSheetId="1"/>
-    <customWorkbookView name="EMILIE POISSON - Personal View" guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1059,7 +1059,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1113,7 +1113,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1516,20 +1516,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" scale="90">
-      <selection activeCell="A13" sqref="A13"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" scale="120">
+      <selection activeCell="A21" sqref="A21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" scale="90">
       <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" scale="120">
-      <selection activeCell="A21" sqref="A21"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" scale="90">
+      <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1807,20 +1807,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D26" sqref="D26"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+      <pageSetup scale="82" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="82" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:M1431"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21985,10 +21985,10 @@
   </sheetData>
   <autoFilter ref="A4:L1431"/>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A52">
+      <selection activeCell="G48" sqref="G48"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+      <pageSetup scale="69" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
@@ -21997,22 +21997,26 @@
       <pageSetup scale="68" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A52">
-      <selection activeCell="G48" sqref="G48"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="69" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
+      <pageSetup scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="must be standard date!" error="enter date as dd/mm/yyyy" sqref="I5:I1431">
       <formula1>36526</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="must be standard date" error="Enter a date as dd/mm/yyyy" sqref="K5:L1431">
       <formula1>36526</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4"/>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="no standard format date!" error="the date must be given in format:_x000a_DD/MM/YYYY_x000a_for example:_x000a_29/12/2000" sqref="F2">
+      <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22023,9 +22027,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>dropdowns!$B$2:$B$5</xm:f>
+            <xm:f>dropdowns!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J1048576</xm:sqref>
+          <xm:sqref>J1 J5:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22174,16 +22178,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}">
-      <selection activeCell="C30" sqref="C30"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" state="hidden">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" state="hidden">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}">
+      <selection activeCell="C30" sqref="C30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
